--- a/data/case1/14/Plm1_5.xlsx
+++ b/data/case1/14/Plm1_5.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.30630694952255055</v>
+        <v>-0.35303951102532949</v>
       </c>
       <c r="B1" s="0">
-        <v>0.30551020032447695</v>
+        <v>0.35195305404806732</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.21409851853480788</v>
+        <v>-0.19876116458946491</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21184336318424535</v>
+        <v>0.19674380936218583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.058811293086922234</v>
+        <v>-0.093795055139665351</v>
       </c>
       <c r="B3" s="0">
-        <v>0.058568812916096391</v>
+        <v>0.093309636183846578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12056022274760281</v>
+        <v>-0.15530651081510527</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12006705584825994</v>
+        <v>0.15446460846556676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11406705674333839</v>
+        <v>-0.14846460875698497</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11309757576705159</v>
+        <v>0.14678113761162681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.079242241865240537</v>
+        <v>-0.10943891885700197</v>
       </c>
       <c r="B6" s="0">
-        <v>0.079149109094427406</v>
+        <v>0.1092550407239834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.059149110172590724</v>
+        <v>-0.08925504108101201</v>
       </c>
       <c r="B7" s="0">
-        <v>0.058955486587349171</v>
+        <v>0.08879106995700603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.038955487673852041</v>
+        <v>-0.068791070318513725</v>
       </c>
       <c r="B8" s="0">
-        <v>0.038835421627642752</v>
+        <v>0.068389925710491184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.032835422565494987</v>
+        <v>-0.062389926022336617</v>
       </c>
       <c r="B9" s="0">
-        <v>0.032747873678096617</v>
+        <v>0.062048297777215211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.026747874623609391</v>
+        <v>-0.056048298093799076</v>
       </c>
       <c r="B10" s="0">
-        <v>0.026745892150081829</v>
+        <v>0.055998022954092619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.022245893079581691</v>
+        <v>-0.051498023265299508</v>
       </c>
       <c r="B11" s="0">
-        <v>0.022235830241832844</v>
+        <v>0.051415037850038203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.016235831189459926</v>
+        <v>-0.045415038168381106</v>
       </c>
       <c r="B12" s="0">
-        <v>0.016207417675070168</v>
+        <v>0.045159172673592707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.010207418628092491</v>
+        <v>-0.039159172997049296</v>
       </c>
       <c r="B13" s="0">
-        <v>0.010204048349325312</v>
+        <v>0.039089437313903019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0017959506290674554</v>
+        <v>-0.027089437662517923</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0017969365286960581</v>
+        <v>0.027055619559181565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0077969355747438129</v>
+        <v>-0.021055619885331112</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.007802081813776951</v>
+        <v>0.021028986287289442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027117931463607</v>
+        <v>-0.015028986614491702</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003973886178912</v>
+        <v>0.015004765645117768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090039748432566569</v>
+        <v>-0.0090047659737555463</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990084130843</v>
+        <v>0.0089999996592649012</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036106544236130134</v>
+        <v>-0.07181982505845852</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096294212622837</v>
+        <v>0.071753274955916879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096295106142421</v>
+        <v>-0.062753275247136919</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013098074696984</v>
+        <v>0.062265805617303549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013098976526365</v>
+        <v>-0.05326580591530039</v>
       </c>
       <c r="B20" s="0">
-        <v>0.01800426098721708</v>
+        <v>0.053167652673113963</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042618901406968</v>
+        <v>-0.044167652972481264</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999990963871568</v>
+        <v>0.044047235793157835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.14403207101262439</v>
+        <v>-0.093948754519654898</v>
       </c>
       <c r="B22" s="0">
-        <v>0.14327212267783551</v>
+        <v>0.093635166447469942</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.13427212360609975</v>
+        <v>-0.084635166747290214</v>
       </c>
       <c r="B23" s="0">
-        <v>0.13294214195354837</v>
+        <v>0.084127017186986564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.090942143280235754</v>
+        <v>-0.04212701762118698</v>
       </c>
       <c r="B24" s="0">
-        <v>0.090311239245255415</v>
+        <v>0.041999999563474333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.027855334818966071</v>
+        <v>-0.031342219055090936</v>
       </c>
       <c r="B25" s="0">
-        <v>0.027835593615435528</v>
+        <v>0.031307110275331951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.021835594533108349</v>
+        <v>-0.025307110575823799</v>
       </c>
       <c r="B26" s="0">
-        <v>0.021812914486201151</v>
+        <v>0.025267397202558328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.015812915404770145</v>
+        <v>-0.019267397503486272</v>
       </c>
       <c r="B27" s="0">
-        <v>0.015736453619131119</v>
+        <v>0.019145296614050622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0097364545413611836</v>
+        <v>-0.01314529691641475</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0096930295150103873</v>
+        <v>0.013070955102924664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0023069694935564655</v>
+        <v>-0.0010709554295527113</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0023183248848237525</v>
+        <v>0.0010455360702614769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.022318323803468321</v>
+        <v>0.018954463571668967</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.022454424925499872</v>
+        <v>-0.019047109292910314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017499510169074</v>
+        <v>0.03404710895578944</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000565955880518</v>
+        <v>-0.034103027148503884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005670453096016</v>
+        <v>0.017381700687204571</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990794237235</v>
+        <v>-0.017392593645193521</v>
       </c>
     </row>
   </sheetData>
